--- a/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/CS_SENTADO/Sujeto_Posicion_epochs_1.xlsx
+++ b/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/CS_SENTADO/Sujeto_Posicion_epochs_1.xlsx
@@ -12,98 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
-  <si>
-    <t>epochs</t>
-  </si>
-  <si>
-    <t>dropout</t>
-  </si>
-  <si>
-    <t>activation</t>
-  </si>
-  <si>
-    <t>optimization</t>
-  </si>
-  <si>
-    <t>neurons</t>
-  </si>
-  <si>
-    <t>batch_size</t>
-  </si>
-  <si>
-    <t>hidden_layers</t>
-  </si>
-  <si>
-    <t>CORRELATION</t>
-  </si>
-  <si>
-    <t>FISHER</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>tanh</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0.24072668713103518</t>
-  </si>
-  <si>
-    <t>0.2455453581858019</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>0.198998452502878</t>
-  </si>
-  <si>
-    <t>0.20168949267362465</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>0.008568954553274343</t>
-  </si>
-  <si>
-    <t>0.008569164293339104</t>
-  </si>
-  <si>
-    <t>-0.19371683238166545</t>
-  </si>
-  <si>
-    <t>-0.1961960508107621</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>-0.13660110690943147</t>
-  </si>
-  <si>
-    <t>-0.13746040082760125</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,193 +366,551 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>batch_size</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>neurons</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>hidden_layers</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dropout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>epochs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>optimization</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>activation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CORRELATION</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Adamax</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.7008093066132028</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.8688891694250767</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Adamax</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.7007141275914737</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.868702152628264</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Adamax</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.7005670595228999</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.8684132756410525</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Adamax</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.7002193365198662</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.8677307288402745</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Adamax</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.7001109526370737</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.8675181150237519</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Adamax</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.7000179039180761</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.8673356342784947</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Adamax</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.6999169655956115</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.8671377336884263</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Adamax</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.6996652880104026</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.8666445309516464</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Adamax</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.6990696401243248</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.8654786171404437</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Adamax</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.5943349698460694</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.6843421056439232</t>
+        </is>
       </c>
     </row>
   </sheetData>
